--- a/www.eia.gov/electricity/monthly/xls/table_2_14_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_2_14_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 2.14.B. Consumption of Wood / Wood Waste Biomass for Electricity Generation by State, by Sector,</t>
   </si>
   <si>
-    <t>Year-to-Date through October 2016 and October 2015 (Billion Btus)</t>
+    <t>Year-to-Date through November 2016 and November 2015 (Billion Btus)</t>
   </si>
   <si>
     <t/>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1356,37 +1356,37 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>50212</v>
+        <v>54708</v>
       </c>
       <c r="C6" s="13">
-        <v>52361</v>
+        <v>57324</v>
       </c>
       <c r="D6" s="14">
-        <v>-4.1000000000000002E-2</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="E6" s="13">
-        <v>7663</v>
+        <v>8520</v>
       </c>
       <c r="F6" s="13">
-        <v>7541</v>
+        <v>8265</v>
       </c>
       <c r="G6" s="13">
-        <v>37592</v>
+        <v>40697</v>
       </c>
       <c r="H6" s="13">
-        <v>38151</v>
+        <v>41814</v>
       </c>
       <c r="I6" s="13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="13">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K6" s="13">
-        <v>4937</v>
+        <v>5468</v>
       </c>
       <c r="L6" s="13">
-        <v>6623</v>
+        <v>7197</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1394,13 +1394,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="16">
-        <v>3724</v>
+        <v>4062</v>
       </c>
       <c r="C7" s="16">
-        <v>2240</v>
+        <v>2337</v>
       </c>
       <c r="D7" s="17">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>3724</v>
+        <v>4062</v>
       </c>
       <c r="H7" s="16">
-        <v>2239</v>
+        <v>2336</v>
       </c>
       <c r="I7" s="16">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="16">
-        <v>20606</v>
+        <v>22142</v>
       </c>
       <c r="C8" s="16">
-        <v>24248</v>
+        <v>26651</v>
       </c>
       <c r="D8" s="17">
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <v>15664</v>
+        <v>16668</v>
       </c>
       <c r="H8" s="16">
-        <v>17600</v>
+        <v>19429</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>16</v>
@@ -1459,10 +1459,10 @@
         <v>25</v>
       </c>
       <c r="K8" s="16">
-        <v>4937</v>
+        <v>5468</v>
       </c>
       <c r="L8" s="16">
-        <v>6623</v>
+        <v>7197</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1470,13 +1470,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="16">
-        <v>1599</v>
+        <v>1741</v>
       </c>
       <c r="C9" s="16">
-        <v>1647</v>
+        <v>1836</v>
       </c>
       <c r="D9" s="17">
-        <v>-2.9000000000000001E-2</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="16">
-        <v>1599</v>
+        <v>1741</v>
       </c>
       <c r="H9" s="16">
-        <v>1647</v>
+        <v>1836</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -1508,25 +1508,25 @@
         <v>18</v>
       </c>
       <c r="B10" s="16">
-        <v>19000</v>
+        <v>20972</v>
       </c>
       <c r="C10" s="16">
-        <v>19084</v>
+        <v>20803</v>
       </c>
       <c r="D10" s="17">
-        <v>-4.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E10" s="16">
-        <v>4016</v>
+        <v>4512</v>
       </c>
       <c r="F10" s="16">
-        <v>4126</v>
+        <v>4496</v>
       </c>
       <c r="G10" s="16">
-        <v>14985</v>
+        <v>16460</v>
       </c>
       <c r="H10" s="16">
-        <v>14958</v>
+        <v>16307</v>
       </c>
       <c r="I10" s="16">
         <v>0</v>
@@ -1584,31 +1584,31 @@
         <v>21</v>
       </c>
       <c r="B12" s="16">
-        <v>5283</v>
+        <v>5791</v>
       </c>
       <c r="C12" s="16">
-        <v>5142</v>
+        <v>5696</v>
       </c>
       <c r="D12" s="17">
-        <v>2.7E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E12" s="16">
-        <v>3648</v>
+        <v>4008</v>
       </c>
       <c r="F12" s="16">
-        <v>3416</v>
+        <v>3770</v>
       </c>
       <c r="G12" s="16">
-        <v>1620</v>
+        <v>1766</v>
       </c>
       <c r="H12" s="16">
-        <v>1708</v>
+        <v>1906</v>
       </c>
       <c r="I12" s="16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J12" s="16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="16">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="13">
-        <v>10500</v>
+        <v>11586</v>
       </c>
       <c r="C13" s="13">
-        <v>9975</v>
+        <v>11021</v>
       </c>
       <c r="D13" s="14">
-        <v>5.2999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -1637,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <v>5967</v>
+        <v>6617</v>
       </c>
       <c r="H13" s="13">
-        <v>5480</v>
+        <v>6018</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -1649,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="13">
-        <v>4533</v>
+        <v>4969</v>
       </c>
       <c r="L13" s="13">
-        <v>4495</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1698,13 +1698,13 @@
         <v>24</v>
       </c>
       <c r="B15" s="16">
-        <v>6895</v>
+        <v>7634</v>
       </c>
       <c r="C15" s="16">
-        <v>6425</v>
+        <v>7056</v>
       </c>
       <c r="D15" s="17">
-        <v>7.2999999999999995E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1713,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="16">
-        <v>5963</v>
+        <v>6613</v>
       </c>
       <c r="H15" s="16">
-        <v>5448</v>
+        <v>5985</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
@@ -1725,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="16">
-        <v>933</v>
+        <v>1021</v>
       </c>
       <c r="L15" s="16">
-        <v>977</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1736,13 +1736,13 @@
         <v>25</v>
       </c>
       <c r="B16" s="16">
-        <v>3604</v>
+        <v>3952</v>
       </c>
       <c r="C16" s="16">
-        <v>3550</v>
+        <v>3965</v>
       </c>
       <c r="D16" s="17">
-        <v>1.4999999999999999E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="16">
-        <v>3600</v>
+        <v>3948</v>
       </c>
       <c r="L16" s="16">
-        <v>3518</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="B17" s="13">
-        <v>23683</v>
+        <v>26011</v>
       </c>
       <c r="C17" s="13">
-        <v>26726</v>
+        <v>29187</v>
       </c>
       <c r="D17" s="14">
         <v>-0.11</v>
       </c>
       <c r="E17" s="13">
-        <v>4217</v>
+        <v>4757</v>
       </c>
       <c r="F17" s="13">
-        <v>4264</v>
+        <v>4798</v>
       </c>
       <c r="G17" s="13">
-        <v>10175</v>
+        <v>11064</v>
       </c>
       <c r="H17" s="13">
-        <v>12345</v>
+        <v>13311</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         <v>7</v>
       </c>
       <c r="K17" s="13">
-        <v>9291</v>
+        <v>10190</v>
       </c>
       <c r="L17" s="13">
-        <v>10109</v>
+        <v>11071</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1888,13 +1888,13 @@
         <v>29</v>
       </c>
       <c r="B20" s="16">
-        <v>15390</v>
+        <v>16818</v>
       </c>
       <c r="C20" s="16">
-        <v>15158</v>
+        <v>16622</v>
       </c>
       <c r="D20" s="17">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>16</v>
@@ -1903,10 +1903,10 @@
         <v>0.06</v>
       </c>
       <c r="G20" s="16">
-        <v>9625</v>
+        <v>10457</v>
       </c>
       <c r="H20" s="16">
-        <v>9328</v>
+        <v>10238</v>
       </c>
       <c r="I20" s="16">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>7</v>
       </c>
       <c r="K20" s="16">
-        <v>5765</v>
+        <v>6360</v>
       </c>
       <c r="L20" s="16">
-        <v>5824</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1926,10 +1926,10 @@
         <v>30</v>
       </c>
       <c r="B21" s="16">
-        <v>1832</v>
+        <v>2008</v>
       </c>
       <c r="C21" s="16">
-        <v>2514</v>
+        <v>2751</v>
       </c>
       <c r="D21" s="17">
         <v>-0.27</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="16">
-        <v>550</v>
+        <v>606</v>
       </c>
       <c r="H21" s="16">
-        <v>569</v>
+        <v>624</v>
       </c>
       <c r="I21" s="16">
         <v>0</v>
@@ -1953,10 +1953,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="16">
-        <v>1282</v>
+        <v>1402</v>
       </c>
       <c r="L21" s="16">
-        <v>1945</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1964,19 +1964,19 @@
         <v>31</v>
       </c>
       <c r="B22" s="16">
-        <v>6461</v>
+        <v>7185</v>
       </c>
       <c r="C22" s="16">
-        <v>9053</v>
+        <v>9814</v>
       </c>
       <c r="D22" s="17">
-        <v>-0.28999999999999998</v>
+        <v>-0.27</v>
       </c>
       <c r="E22" s="16">
-        <v>4217</v>
+        <v>4757</v>
       </c>
       <c r="F22" s="16">
-        <v>4264</v>
+        <v>4798</v>
       </c>
       <c r="G22" s="16">
         <v>0</v>
@@ -1991,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="16">
-        <v>2244</v>
+        <v>2428</v>
       </c>
       <c r="L22" s="16">
-        <v>2341</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2002,37 +2002,37 @@
         <v>32</v>
       </c>
       <c r="B23" s="13">
-        <v>9752</v>
+        <v>10672</v>
       </c>
       <c r="C23" s="13">
-        <v>9857</v>
+        <v>10987</v>
       </c>
       <c r="D23" s="14">
-        <v>-1.0999999999999999E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>1740</v>
+        <v>1908</v>
       </c>
       <c r="F23" s="13">
-        <v>1662</v>
+        <v>1873</v>
       </c>
       <c r="G23" s="13">
-        <v>5268</v>
+        <v>5761</v>
       </c>
       <c r="H23" s="13">
-        <v>5547</v>
+        <v>6174</v>
       </c>
       <c r="I23" s="13">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="J23" s="13">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K23" s="13">
-        <v>2355</v>
+        <v>2603</v>
       </c>
       <c r="L23" s="13">
-        <v>2430</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2043,7 +2043,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>16</v>
@@ -2064,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="J24" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K24" s="16">
         <v>0</v>
@@ -2116,37 +2116,37 @@
         <v>35</v>
       </c>
       <c r="B26" s="16">
-        <v>9434</v>
+        <v>10354</v>
       </c>
       <c r="C26" s="16">
-        <v>9652</v>
+        <v>10782</v>
       </c>
       <c r="D26" s="17">
-        <v>-2.3E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="E26" s="16">
-        <v>1740</v>
+        <v>1908</v>
       </c>
       <c r="F26" s="16">
-        <v>1662</v>
+        <v>1873</v>
       </c>
       <c r="G26" s="16">
-        <v>5268</v>
+        <v>5761</v>
       </c>
       <c r="H26" s="16">
-        <v>5547</v>
+        <v>6174</v>
       </c>
       <c r="I26" s="16">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J26" s="16">
         <v>13</v>
       </c>
       <c r="K26" s="16">
-        <v>2355</v>
+        <v>2603</v>
       </c>
       <c r="L26" s="16">
-        <v>2430</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2306,37 +2306,37 @@
         <v>40</v>
       </c>
       <c r="B31" s="13">
-        <v>97217</v>
+        <v>105963</v>
       </c>
       <c r="C31" s="13">
-        <v>105005</v>
+        <v>114793</v>
       </c>
       <c r="D31" s="14">
-        <v>-7.3999999999999996E-2</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="E31" s="13">
-        <v>17966</v>
+        <v>18814</v>
       </c>
       <c r="F31" s="13">
-        <v>17641</v>
+        <v>19208</v>
       </c>
       <c r="G31" s="13">
-        <v>26419</v>
+        <v>28973</v>
       </c>
       <c r="H31" s="13">
-        <v>33645</v>
+        <v>36660</v>
       </c>
       <c r="I31" s="13">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="J31" s="13">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K31" s="13">
-        <v>52661</v>
+        <v>57989</v>
       </c>
       <c r="L31" s="13">
-        <v>53540</v>
+        <v>58729</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2420,13 +2420,13 @@
         <v>43</v>
       </c>
       <c r="B34" s="16">
-        <v>13075</v>
+        <v>14656</v>
       </c>
       <c r="C34" s="16">
-        <v>18774</v>
+        <v>20395</v>
       </c>
       <c r="D34" s="17">
-        <v>-0.3</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="E34" s="16">
         <v>0</v>
@@ -2435,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="16">
-        <v>5909</v>
+        <v>6730</v>
       </c>
       <c r="H34" s="16">
-        <v>11161</v>
+        <v>12072</v>
       </c>
       <c r="I34" s="16">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="16">
-        <v>7165</v>
+        <v>7926</v>
       </c>
       <c r="L34" s="16">
-        <v>7614</v>
+        <v>8323</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2458,13 +2458,13 @@
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>25042</v>
+        <v>27650</v>
       </c>
       <c r="C35" s="16">
-        <v>25425</v>
+        <v>28037</v>
       </c>
       <c r="D35" s="17">
-        <v>-1.4999999999999999E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="E35" s="16">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="16">
-        <v>6030</v>
+        <v>6623</v>
       </c>
       <c r="H35" s="16">
-        <v>5855</v>
+        <v>6535</v>
       </c>
       <c r="I35" s="16">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="16">
-        <v>19011</v>
+        <v>21027</v>
       </c>
       <c r="L35" s="16">
-        <v>19570</v>
+        <v>21501</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2496,13 +2496,13 @@
         <v>45</v>
       </c>
       <c r="B36" s="16">
-        <v>718</v>
+        <v>800</v>
       </c>
       <c r="C36" s="16">
-        <v>682</v>
+        <v>742</v>
       </c>
       <c r="D36" s="17">
-        <v>5.2999999999999999E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2517,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="I36" s="16">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="J36" s="16">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K36" s="16">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="L36" s="16">
-        <v>503</v>
+        <v>546</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2534,13 +2534,13 @@
         <v>46</v>
       </c>
       <c r="B37" s="16">
-        <v>12611</v>
+        <v>13651</v>
       </c>
       <c r="C37" s="16">
-        <v>14100</v>
+        <v>15580</v>
       </c>
       <c r="D37" s="17">
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="E37" s="16">
         <v>0</v>
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="16">
-        <v>6982</v>
+        <v>7402</v>
       </c>
       <c r="H37" s="16">
-        <v>7953</v>
+        <v>8789</v>
       </c>
       <c r="I37" s="16">
         <v>0</v>
@@ -2561,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="K37" s="16">
-        <v>5630</v>
+        <v>6249</v>
       </c>
       <c r="L37" s="16">
-        <v>6147</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2572,25 +2572,25 @@
         <v>47</v>
       </c>
       <c r="B38" s="16">
-        <v>22127</v>
+        <v>24223</v>
       </c>
       <c r="C38" s="16">
-        <v>21934</v>
+        <v>24027</v>
       </c>
       <c r="D38" s="17">
-        <v>8.9999999999999993E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E38" s="16">
-        <v>3040</v>
+        <v>3408</v>
       </c>
       <c r="F38" s="16">
-        <v>3316</v>
+        <v>3698</v>
       </c>
       <c r="G38" s="16">
-        <v>5021</v>
+        <v>5493</v>
       </c>
       <c r="H38" s="16">
-        <v>5370</v>
+        <v>5899</v>
       </c>
       <c r="I38" s="16">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="K38" s="16">
-        <v>14066</v>
+        <v>15322</v>
       </c>
       <c r="L38" s="16">
-        <v>13248</v>
+        <v>14430</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2610,25 +2610,25 @@
         <v>48</v>
       </c>
       <c r="B39" s="16">
-        <v>23644</v>
+        <v>24983</v>
       </c>
       <c r="C39" s="16">
-        <v>24089</v>
+        <v>26012</v>
       </c>
       <c r="D39" s="17">
-        <v>-1.7999999999999999E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="E39" s="16">
-        <v>14927</v>
+        <v>15406</v>
       </c>
       <c r="F39" s="16">
-        <v>14325</v>
+        <v>15509</v>
       </c>
       <c r="G39" s="16">
-        <v>2476</v>
+        <v>2724</v>
       </c>
       <c r="H39" s="16">
-        <v>3306</v>
+        <v>3364</v>
       </c>
       <c r="I39" s="16">
         <v>0</v>
@@ -2637,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="16">
-        <v>6241</v>
+        <v>6853</v>
       </c>
       <c r="L39" s="16">
-        <v>6458</v>
+        <v>7139</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2686,13 +2686,13 @@
         <v>50</v>
       </c>
       <c r="B41" s="13">
-        <v>31236</v>
+        <v>34418</v>
       </c>
       <c r="C41" s="13">
-        <v>31131</v>
+        <v>34377</v>
       </c>
       <c r="D41" s="14">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E41" s="13">
         <v>0</v>
@@ -2701,10 +2701,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="13">
-        <v>1999</v>
+        <v>2191</v>
       </c>
       <c r="H41" s="13">
-        <v>1836</v>
+        <v>2043</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>29237</v>
+        <v>32227</v>
       </c>
       <c r="L41" s="13">
-        <v>29294</v>
+        <v>32333</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2724,13 +2724,13 @@
         <v>51</v>
       </c>
       <c r="B42" s="16">
-        <v>18977</v>
+        <v>20926</v>
       </c>
       <c r="C42" s="16">
-        <v>18854</v>
+        <v>20818</v>
       </c>
       <c r="D42" s="17">
-        <v>7.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E42" s="16">
         <v>0</v>
@@ -2739,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="16">
-        <v>1999</v>
+        <v>2191</v>
       </c>
       <c r="H42" s="16">
-        <v>1836</v>
+        <v>2043</v>
       </c>
       <c r="I42" s="16">
         <v>0</v>
@@ -2751,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="16">
-        <v>16978</v>
+        <v>18735</v>
       </c>
       <c r="L42" s="16">
-        <v>17018</v>
+        <v>18775</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2762,13 +2762,13 @@
         <v>52</v>
       </c>
       <c r="B43" s="16">
-        <v>1417</v>
+        <v>1572</v>
       </c>
       <c r="C43" s="16">
-        <v>1363</v>
+        <v>1536</v>
       </c>
       <c r="D43" s="17">
-        <v>3.9E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E43" s="16">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="16">
-        <v>1417</v>
+        <v>1572</v>
       </c>
       <c r="L43" s="16">
-        <v>1363</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2800,13 +2800,13 @@
         <v>53</v>
       </c>
       <c r="B44" s="16">
-        <v>6850</v>
+        <v>7520</v>
       </c>
       <c r="C44" s="16">
-        <v>6901</v>
+        <v>7614</v>
       </c>
       <c r="D44" s="17">
-        <v>-7.0000000000000001E-3</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="E44" s="16">
         <v>0</v>
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="16">
-        <v>6850</v>
+        <v>7520</v>
       </c>
       <c r="L44" s="16">
-        <v>6901</v>
+        <v>7613</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2838,13 +2838,13 @@
         <v>54</v>
       </c>
       <c r="B45" s="16">
-        <v>3992</v>
+        <v>4399</v>
       </c>
       <c r="C45" s="16">
-        <v>4012</v>
+        <v>4410</v>
       </c>
       <c r="D45" s="17">
-        <v>-5.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="E45" s="16">
         <v>0</v>
@@ -2865,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="16">
-        <v>3992</v>
+        <v>4399</v>
       </c>
       <c r="L45" s="16">
-        <v>4012</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2876,13 +2876,13 @@
         <v>55</v>
       </c>
       <c r="B46" s="13">
-        <v>31736</v>
+        <v>34975</v>
       </c>
       <c r="C46" s="13">
-        <v>32989</v>
+        <v>36098</v>
       </c>
       <c r="D46" s="14">
-        <v>-3.7999999999999999E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="E46" s="13">
         <v>337</v>
@@ -2891,7 +2891,7 @@
         <v>1820</v>
       </c>
       <c r="G46" s="13">
-        <v>1449</v>
+        <v>1625</v>
       </c>
       <c r="H46" s="13">
         <v>1132</v>
@@ -2903,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>29951</v>
+        <v>33013</v>
       </c>
       <c r="L46" s="13">
-        <v>30037</v>
+        <v>33145</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2914,10 +2914,10 @@
         <v>56</v>
       </c>
       <c r="B47" s="16">
-        <v>6129</v>
+        <v>6794</v>
       </c>
       <c r="C47" s="16">
-        <v>6662</v>
+        <v>7384</v>
       </c>
       <c r="D47" s="17">
         <v>-0.08</v>
@@ -2941,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="16">
-        <v>6129</v>
+        <v>6794</v>
       </c>
       <c r="L47" s="16">
-        <v>6662</v>
+        <v>7384</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2952,13 +2952,13 @@
         <v>57</v>
       </c>
       <c r="B48" s="16">
-        <v>16829</v>
+        <v>18562</v>
       </c>
       <c r="C48" s="16">
-        <v>16481</v>
+        <v>18086</v>
       </c>
       <c r="D48" s="17">
-        <v>2.1000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E48" s="16">
         <v>0</v>
@@ -2979,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="K48" s="16">
-        <v>16829</v>
+        <v>18562</v>
       </c>
       <c r="L48" s="16">
-        <v>16481</v>
+        <v>18086</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2990,13 +2990,13 @@
         <v>58</v>
       </c>
       <c r="B49" s="16">
-        <v>994</v>
+        <v>1096</v>
       </c>
       <c r="C49" s="16">
-        <v>975</v>
+        <v>1083</v>
       </c>
       <c r="D49" s="17">
-        <v>0.02</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E49" s="16">
         <v>0</v>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="16">
-        <v>994</v>
+        <v>1096</v>
       </c>
       <c r="L49" s="16">
-        <v>975</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3028,13 +3028,13 @@
         <v>59</v>
       </c>
       <c r="B50" s="16">
-        <v>7785</v>
+        <v>8523</v>
       </c>
       <c r="C50" s="16">
-        <v>8871</v>
+        <v>9545</v>
       </c>
       <c r="D50" s="17">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="E50" s="16">
         <v>337</v>
@@ -3043,7 +3043,7 @@
         <v>1820</v>
       </c>
       <c r="G50" s="16">
-        <v>1449</v>
+        <v>1625</v>
       </c>
       <c r="H50" s="16">
         <v>1132</v>
@@ -3055,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="16">
-        <v>5999</v>
+        <v>6561</v>
       </c>
       <c r="L50" s="16">
-        <v>5919</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3066,13 +3066,13 @@
         <v>60</v>
       </c>
       <c r="B51" s="13">
-        <v>7495</v>
+        <v>8272</v>
       </c>
       <c r="C51" s="13">
-        <v>7492</v>
+        <v>8255</v>
       </c>
       <c r="D51" s="14">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="E51" s="13">
         <v>0</v>
@@ -3081,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="13">
-        <v>3502</v>
+        <v>3867</v>
       </c>
       <c r="H51" s="13">
-        <v>3350</v>
+        <v>3680</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3093,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="13">
-        <v>3992</v>
+        <v>4405</v>
       </c>
       <c r="L51" s="13">
-        <v>4142</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3104,13 +3104,13 @@
         <v>61</v>
       </c>
       <c r="B52" s="16">
-        <v>2811</v>
+        <v>3112</v>
       </c>
       <c r="C52" s="16">
-        <v>2698</v>
+        <v>2967</v>
       </c>
       <c r="D52" s="17">
-        <v>4.2000000000000003E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E52" s="16">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="16">
-        <v>2811</v>
+        <v>3112</v>
       </c>
       <c r="H52" s="16">
-        <v>2698</v>
+        <v>2967</v>
       </c>
       <c r="I52" s="16">
         <v>0</v>
@@ -3145,10 +3145,10 @@
         <v>16</v>
       </c>
       <c r="C53" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E53" s="16">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>16</v>
       </c>
       <c r="H53" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="16">
         <v>0</v>
@@ -3180,10 +3180,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="16">
-        <v>4185</v>
+        <v>4614</v>
       </c>
       <c r="C54" s="16">
-        <v>4340</v>
+        <v>4785</v>
       </c>
       <c r="D54" s="17">
         <v>-3.5999999999999997E-2</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="16">
-        <v>643</v>
+        <v>707</v>
       </c>
       <c r="H54" s="16">
-        <v>651</v>
+        <v>712</v>
       </c>
       <c r="I54" s="16">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="K54" s="16">
-        <v>3541</v>
+        <v>3907</v>
       </c>
       <c r="L54" s="16">
-        <v>3688</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3218,13 +3218,13 @@
         <v>64</v>
       </c>
       <c r="B55" s="16">
-        <v>451</v>
+        <v>497</v>
       </c>
       <c r="C55" s="16">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="D55" s="17">
-        <v>-6.0000000000000001E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E55" s="16">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="K55" s="16">
-        <v>451</v>
+        <v>497</v>
       </c>
       <c r="L55" s="16">
-        <v>454</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3408,25 +3408,25 @@
         <v>69</v>
       </c>
       <c r="B60" s="13">
-        <v>55447</v>
+        <v>60574</v>
       </c>
       <c r="C60" s="13">
-        <v>63374</v>
+        <v>69708</v>
       </c>
       <c r="D60" s="14">
         <v>-0.13</v>
       </c>
       <c r="E60" s="13">
-        <v>3996</v>
+        <v>4422</v>
       </c>
       <c r="F60" s="13">
-        <v>3755</v>
+        <v>4203</v>
       </c>
       <c r="G60" s="13">
-        <v>35729</v>
+        <v>38837</v>
       </c>
       <c r="H60" s="13">
-        <v>41506</v>
+        <v>45616</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="13">
-        <v>15722</v>
+        <v>17315</v>
       </c>
       <c r="L60" s="13">
-        <v>18113</v>
+        <v>19888</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3446,10 +3446,10 @@
         <v>70</v>
       </c>
       <c r="B61" s="16">
-        <v>36282</v>
+        <v>39478</v>
       </c>
       <c r="C61" s="16">
-        <v>42528</v>
+        <v>46598</v>
       </c>
       <c r="D61" s="17">
         <v>-0.15</v>
@@ -3461,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="16">
-        <v>33576</v>
+        <v>36496</v>
       </c>
       <c r="H61" s="16">
-        <v>39383</v>
+        <v>43147</v>
       </c>
       <c r="I61" s="16">
         <v>0</v>
@@ -3473,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="16">
-        <v>2706</v>
+        <v>2982</v>
       </c>
       <c r="L61" s="16">
-        <v>3145</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3484,10 +3484,10 @@
         <v>71</v>
       </c>
       <c r="B62" s="16">
-        <v>5016</v>
+        <v>5528</v>
       </c>
       <c r="C62" s="16">
-        <v>7326</v>
+        <v>8134</v>
       </c>
       <c r="D62" s="17">
         <v>-0.32</v>
@@ -3499,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="16">
-        <v>2153</v>
+        <v>2340</v>
       </c>
       <c r="H62" s="16">
-        <v>2123</v>
+        <v>2470</v>
       </c>
       <c r="I62" s="16">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="16">
-        <v>2863</v>
+        <v>3188</v>
       </c>
       <c r="L62" s="16">
-        <v>5203</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3522,19 +3522,19 @@
         <v>72</v>
       </c>
       <c r="B63" s="16">
-        <v>14149</v>
+        <v>15568</v>
       </c>
       <c r="C63" s="16">
-        <v>13520</v>
+        <v>14976</v>
       </c>
       <c r="D63" s="17">
-        <v>4.7E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E63" s="16">
-        <v>3996</v>
+        <v>4422</v>
       </c>
       <c r="F63" s="16">
-        <v>3755</v>
+        <v>4203</v>
       </c>
       <c r="G63" s="16">
         <v>0</v>
@@ -3549,10 +3549,10 @@
         <v>0</v>
       </c>
       <c r="K63" s="16">
-        <v>10153</v>
+        <v>11146</v>
       </c>
       <c r="L63" s="16">
-        <v>9764</v>
+        <v>10773</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3674,37 +3674,37 @@
         <v>76</v>
       </c>
       <c r="B67" s="13">
-        <v>317279</v>
+        <v>347179</v>
       </c>
       <c r="C67" s="13">
-        <v>338909</v>
+        <v>371750</v>
       </c>
       <c r="D67" s="14">
-        <v>-6.4000000000000001E-2</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="E67" s="13">
-        <v>35919</v>
+        <v>38758</v>
       </c>
       <c r="F67" s="13">
-        <v>36685</v>
+        <v>40169</v>
       </c>
       <c r="G67" s="13">
-        <v>128100</v>
+        <v>139632</v>
       </c>
       <c r="H67" s="13">
-        <v>142992</v>
+        <v>156449</v>
       </c>
       <c r="I67" s="13">
-        <v>581</v>
+        <v>610</v>
       </c>
       <c r="J67" s="13">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="K67" s="13">
-        <v>152679</v>
+        <v>168179</v>
       </c>
       <c r="L67" s="13">
-        <v>158784</v>
+        <v>174664</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
